--- a/img/Import_Leave_Record.xlsx
+++ b/img/Import_Leave_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tns-hr-eservices\img\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\jirayu-a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A11F03-B800-49A7-AE6A-C85F3358438D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4846AA-DD3F-4ED4-B863-A42D200565F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1C69977C-2C0D-4317-9E5D-DD533119D9B8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{1C69977C-2C0D-4317-9E5D-DD533119D9B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <r>
       <t xml:space="preserve">Employee ID
@@ -54,20 +54,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Year
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Please fill in.)</t>
-    </r>
+    <t>TT01588</t>
+  </si>
+  <si>
+    <t>TT01589</t>
+  </si>
+  <si>
+    <t>TT01590</t>
+  </si>
+  <si>
+    <t>TT01591</t>
   </si>
   <si>
     <t>Absenteeism</t>
@@ -80,6 +76,12 @@
   </si>
   <si>
     <t>Late</t>
+  </si>
+  <si>
+    <t>From 1 Sep [YY]  to 31 Dec [YY]</t>
+  </si>
+  <si>
+    <t>From 1 Jan [YY] to 31 Aug [YY]</t>
   </si>
 </sst>
 </file>
@@ -129,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -152,17 +154,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,43 +538,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1FCBD1-1C2A-436A-9060-13CB48BA97C6}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/img/Import_Leave_Record.xlsx
+++ b/img/Import_Leave_Record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\jirayu-a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tns-hr-eservices\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4846AA-DD3F-4ED4-B863-A42D200565F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239E8056-29FA-4F9F-8B38-D1053A9B6161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{1C69977C-2C0D-4317-9E5D-DD533119D9B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1C69977C-2C0D-4317-9E5D-DD533119D9B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <r>
       <t xml:space="preserve">Employee ID
@@ -54,18 +54,6 @@
     </r>
   </si>
   <si>
-    <t>TT01588</t>
-  </si>
-  <si>
-    <t>TT01589</t>
-  </si>
-  <si>
-    <t>TT01590</t>
-  </si>
-  <si>
-    <t>TT01591</t>
-  </si>
-  <si>
     <t>Absenteeism</t>
   </si>
   <si>
@@ -78,10 +66,10 @@
     <t>Late</t>
   </si>
   <si>
-    <t>From 1 Sep [YY]  to 31 Dec [YY]</t>
+    <t>From 1 Sep [YYYY]  to 31 Dec [YYYY]</t>
   </si>
   <si>
-    <t>From 1 Jan [YY] to 31 Aug [YY]</t>
+    <t>From 1 Jan [YYYY] to 31 Aug [YYYY]</t>
   </si>
 </sst>
 </file>
@@ -192,17 +180,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1FCBD1-1C2A-436A-9060-13CB48BA97C6}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,163 +546,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>19</v>
-      </c>
-      <c r="I3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-      <c r="I4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>21</v>
-      </c>
-      <c r="I5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
         <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <v>22</v>
-      </c>
-      <c r="I6">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/img/Import_Leave_Record.xlsx
+++ b/img/Import_Leave_Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tns-hr-eservices\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239E8056-29FA-4F9F-8B38-D1053A9B6161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F5EA1D-107E-43EF-9A83-04A94733E3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1C69977C-2C0D-4317-9E5D-DD533119D9B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <r>
       <t xml:space="preserve">Employee ID
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>From 1 Jan [YYYY] to 31 Aug [YYYY]</t>
+  </si>
+  <si>
+    <t>Verbal Warning</t>
+  </si>
+  <si>
+    <t>Letter warning</t>
   </si>
 </sst>
 </file>
@@ -172,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +197,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1FCBD1-1C2A-436A-9060-13CB48BA97C6}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1"/>
+      <selection activeCell="A3" sqref="A3:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,9 +552,11 @@
     <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -561,8 +572,14 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
+      <c r="J1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -588,12 +605,16 @@
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
